--- a/work/survey_list.xlsx
+++ b/work/survey_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>option3</t>
   </si>
@@ -66,11 +66,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>N1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Khả năng học ngoại ngữ của bạn?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tốt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bình thường</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kém</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rất kém</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -435,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -487,40 +503,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -533,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -599,39 +615,39 @@
       </c>
       <c r="E2" s="2" t="str">
         <f>""""&amp;survey!E2&amp;""""</f>
-        <v>"a"</v>
+        <v>"Khả năng học ngoại ngữ của bạn?"</v>
       </c>
       <c r="F2" s="2" t="str">
         <f>""""&amp;survey!F2&amp;""""</f>
-        <v>"a"</v>
-      </c>
-      <c r="G2" s="2" t="str">
-        <f>""""&amp;survey!G2&amp;""""</f>
-        <v>"a"</v>
+        <v>"Tốt"</v>
+      </c>
+      <c r="G2" s="2" t="b">
+        <f>survey!G2</f>
+        <v>1</v>
       </c>
       <c r="H2" s="2" t="str">
         <f>""""&amp;survey!H2&amp;""""</f>
-        <v>"a"</v>
-      </c>
-      <c r="I2" s="2" t="str">
-        <f>""""&amp;survey!I2&amp;""""</f>
-        <v>"a"</v>
+        <v>"Bình thường"</v>
+      </c>
+      <c r="I2" s="2" t="b">
+        <f>survey!I2</f>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="str">
         <f>""""&amp;survey!J2&amp;""""</f>
-        <v>"a"</v>
-      </c>
-      <c r="K2" s="2" t="str">
-        <f>""""&amp;survey!K2&amp;""""</f>
-        <v>"a"</v>
+        <v>"Kém"</v>
+      </c>
+      <c r="K2" s="2" t="b">
+        <f>survey!K2</f>
+        <v>0</v>
       </c>
       <c r="L2" s="2" t="str">
         <f>""""&amp;survey!L2&amp;""""</f>
-        <v>"a"</v>
-      </c>
-      <c r="M2" s="2" t="str">
-        <f>""""&amp;survey!M2&amp;""""</f>
-        <v>"a"</v>
+        <v>"Rất kém"</v>
+      </c>
+      <c r="M2" s="2" t="b">
+        <f>survey!M2</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/work/survey_list.xlsx
+++ b/work/survey_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>option3</t>
   </si>
@@ -87,6 +87,115 @@
   </si>
   <si>
     <t>Rất kém</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>qType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Khả năng nhớ từ mới?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nhanh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chậm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Bạn đã từng học ở level này hoặc t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng?</t>
+    </r>
+  </si>
+  <si>
+    <t>Đã từng</t>
+  </si>
+  <si>
+    <r>
+      <t>Ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a bao giờ.</t>
+    </r>
+  </si>
+  <si>
+    <t>N1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -94,7 +203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +216,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -449,15 +565,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -471,34 +587,37 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -511,31 +630,286 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="b">
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -547,15 +921,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -569,34 +943,37 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="str">
         <f>""""&amp;survey!A2&amp;""""</f>
         <v>"1"</v>
@@ -615,38 +992,390 @@
       </c>
       <c r="E2" s="2" t="str">
         <f>""""&amp;survey!E2&amp;""""</f>
-        <v>"Khả năng học ngoại ngữ của bạn?"</v>
+        <v>"1"</v>
       </c>
       <c r="F2" s="2" t="str">
         <f>""""&amp;survey!F2&amp;""""</f>
+        <v>"Khả năng học ngoại ngữ của bạn?"</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>""""&amp;survey!G2&amp;""""</f>
         <v>"Tốt"</v>
       </c>
-      <c r="G2" s="2" t="b">
-        <f>survey!G2</f>
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="str">
-        <f>""""&amp;survey!H2&amp;""""</f>
+      <c r="H2" s="2" t="b">
+        <f>survey!H2</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f>""""&amp;survey!I2&amp;""""</f>
         <v>"Bình thường"</v>
       </c>
-      <c r="I2" s="2" t="b">
-        <f>survey!I2</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="str">
-        <f>""""&amp;survey!J2&amp;""""</f>
+      <c r="J2" s="2" t="b">
+        <f>survey!J2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f>""""&amp;survey!K2&amp;""""</f>
         <v>"Kém"</v>
       </c>
-      <c r="K2" s="2" t="b">
-        <f>survey!K2</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="str">
-        <f>""""&amp;survey!L2&amp;""""</f>
+      <c r="L2" s="2" t="b">
+        <f>survey!L2</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f>""""&amp;survey!M2&amp;""""</f>
         <v>"Rất kém"</v>
       </c>
-      <c r="M2" s="2" t="b">
-        <f>survey!M2</f>
+      <c r="N2" s="2" t="b">
+        <f>survey!N2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="2" t="str">
+        <f>""""&amp;survey!A3&amp;""""</f>
+        <v>"1"</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>""""&amp;survey!B3&amp;""""</f>
+        <v>"N2"</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <f>survey!C3</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <f>survey!D3</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>""""&amp;survey!E3&amp;""""</f>
+        <v>"1"</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f>""""&amp;survey!F3&amp;""""</f>
+        <v>"Khả năng học ngoại ngữ của bạn?"</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f>""""&amp;survey!G3&amp;""""</f>
+        <v>"Tốt"</v>
+      </c>
+      <c r="H3" s="2" t="b">
+        <f>survey!H3</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f>""""&amp;survey!I3&amp;""""</f>
+        <v>"Bình thường"</v>
+      </c>
+      <c r="J3" s="2" t="b">
+        <f>survey!J3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f>""""&amp;survey!K3&amp;""""</f>
+        <v>"Kém"</v>
+      </c>
+      <c r="L3" s="2" t="b">
+        <f>survey!L3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f>""""&amp;survey!M3&amp;""""</f>
+        <v>"Rất kém"</v>
+      </c>
+      <c r="N3" s="2" t="b">
+        <f>survey!N3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="2" t="str">
+        <f>""""&amp;survey!A4&amp;""""</f>
+        <v>"1"</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>""""&amp;survey!B4&amp;""""</f>
+        <v>"N3"</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <f>survey!C4</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="b">
+        <f>survey!D4</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f>""""&amp;survey!E4&amp;""""</f>
+        <v>"1"</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f>""""&amp;survey!F4&amp;""""</f>
+        <v>"Khả năng học ngoại ngữ của bạn?"</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f>""""&amp;survey!G4&amp;""""</f>
+        <v>"Tốt"</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <f>survey!H4</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f>""""&amp;survey!I4&amp;""""</f>
+        <v>"Bình thường"</v>
+      </c>
+      <c r="J4" s="2" t="b">
+        <f>survey!J4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f>""""&amp;survey!K4&amp;""""</f>
+        <v>"Kém"</v>
+      </c>
+      <c r="L4" s="2" t="b">
+        <f>survey!L4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f>""""&amp;survey!M4&amp;""""</f>
+        <v>"Rất kém"</v>
+      </c>
+      <c r="N4" s="2" t="b">
+        <f>survey!N4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="2" t="str">
+        <f>""""&amp;survey!A5&amp;""""</f>
+        <v>"1"</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>""""&amp;survey!B5&amp;""""</f>
+        <v>"N4"</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <f>survey!C5</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <f>survey!D5</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f>""""&amp;survey!E5&amp;""""</f>
+        <v>"1"</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f>""""&amp;survey!F5&amp;""""</f>
+        <v>"Khả năng học ngoại ngữ của bạn?"</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f>""""&amp;survey!G5&amp;""""</f>
+        <v>"Tốt"</v>
+      </c>
+      <c r="H5" s="2" t="b">
+        <f>survey!H5</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f>""""&amp;survey!I5&amp;""""</f>
+        <v>"Bình thường"</v>
+      </c>
+      <c r="J5" s="2" t="b">
+        <f>survey!J5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f>""""&amp;survey!K5&amp;""""</f>
+        <v>"Kém"</v>
+      </c>
+      <c r="L5" s="2" t="b">
+        <f>survey!L5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f>""""&amp;survey!M5&amp;""""</f>
+        <v>"Rất kém"</v>
+      </c>
+      <c r="N5" s="2" t="b">
+        <f>survey!N5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2" t="str">
+        <f>""""&amp;survey!A6&amp;""""</f>
+        <v>"1"</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>""""&amp;survey!B6&amp;""""</f>
+        <v>"N5"</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <f>survey!C6</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <f>survey!D6</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f>""""&amp;survey!E6&amp;""""</f>
+        <v>"1"</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f>""""&amp;survey!F6&amp;""""</f>
+        <v>"Khả năng học ngoại ngữ của bạn?"</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f>""""&amp;survey!G6&amp;""""</f>
+        <v>"Tốt"</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <f>survey!H6</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f>""""&amp;survey!I6&amp;""""</f>
+        <v>"Bình thường"</v>
+      </c>
+      <c r="J6" s="2" t="b">
+        <f>survey!J6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f>""""&amp;survey!K6&amp;""""</f>
+        <v>"Kém"</v>
+      </c>
+      <c r="L6" s="2" t="b">
+        <f>survey!L6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f>""""&amp;survey!M6&amp;""""</f>
+        <v>"Rất kém"</v>
+      </c>
+      <c r="N6" s="2" t="b">
+        <f>survey!N6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="2" t="str">
+        <f>""""&amp;survey!A7&amp;""""</f>
+        <v>"2"</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>""""&amp;survey!B7&amp;""""</f>
+        <v>"N1"</v>
+      </c>
+      <c r="C7" s="2" t="b">
+        <f>survey!C7</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <f>survey!D7</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f>""""&amp;survey!E7&amp;""""</f>
+        <v>"1"</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f>""""&amp;survey!F7&amp;""""</f>
+        <v>"Khả năng nhớ từ mới?"</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f>""""&amp;survey!G7&amp;""""</f>
+        <v>"Nhanh"</v>
+      </c>
+      <c r="H7" s="2" t="b">
+        <f>survey!H7</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f>""""&amp;survey!I7&amp;""""</f>
+        <v>"Chậm"</v>
+      </c>
+      <c r="J7" s="2" t="b">
+        <f>survey!J7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f>""""&amp;survey!K7&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="L7" s="2" t="b">
+        <f>survey!L7</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f>""""&amp;survey!M7&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="N7" s="2" t="b">
+        <f>survey!N7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2" t="str">
+        <f>""""&amp;survey!A8&amp;""""</f>
+        <v>"3"</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>""""&amp;survey!B8&amp;""""</f>
+        <v>"N1"</v>
+      </c>
+      <c r="C8" s="2" t="b">
+        <f>survey!C8</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <f>survey!D8</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f>""""&amp;survey!E8&amp;""""</f>
+        <v>"1"</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f>""""&amp;survey!F8&amp;""""</f>
+        <v>"Bạn đã từng học ở level này hoặc tương đương?"</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f>""""&amp;survey!G8&amp;""""</f>
+        <v>"Đã từng"</v>
+      </c>
+      <c r="H8" s="2" t="b">
+        <f>survey!H8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f>""""&amp;survey!I8&amp;""""</f>
+        <v>"Chưa bao giờ."</v>
+      </c>
+      <c r="J8" s="2" t="b">
+        <f>survey!J8</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f>""""&amp;survey!K8&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="L8" s="2" t="b">
+        <f>survey!L8</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f>""""&amp;survey!M8&amp;""""</f>
+        <v>""</v>
+      </c>
+      <c r="N8" s="2" t="b">
+        <f>survey!N8</f>
         <v>0</v>
       </c>
     </row>
